--- a/data-raw/sustituciones.xlsx
+++ b/data-raw/sustituciones.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -94,6 +94,15 @@
   </si>
   <si>
     <t>problema_chile_O3</t>
+  </si>
+  <si>
+    <t>le indican poner mientras manzana 8967 mientras se carga la otra.</t>
+  </si>
+  <si>
+    <t>le indican ingresar ese numeros mientras se carga la manzana correcta en mapa</t>
+  </si>
+  <si>
+    <t>ingresa mal la manzana</t>
   </si>
 </sst>
 </file>
@@ -2875,6 +2884,329 @@
         <v>24</v>
       </c>
     </row>
+    <row r="169">
+      <c r="A169" s="2">
+        <v>2.14273469E8</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D169" s="2">
+        <v>8967.0</v>
+      </c>
+      <c r="E169" s="2">
+        <v>9644.0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2">
+        <v>2.14274245E8</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D170" s="2">
+        <v>8967.0</v>
+      </c>
+      <c r="E170" s="2">
+        <v>9644.0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2">
+        <v>2.14275069E8</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D171" s="2">
+        <v>8967.0</v>
+      </c>
+      <c r="E171" s="2">
+        <v>9644.0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2">
+        <v>2.14276121E8</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D172" s="2">
+        <v>8967.0</v>
+      </c>
+      <c r="E172" s="2">
+        <v>9644.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2">
+        <v>2.14271743E8</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D173" s="2">
+        <v>8967.0</v>
+      </c>
+      <c r="E173" s="2">
+        <v>9644.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2">
+        <v>2.14316431E8</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D174" s="2">
+        <v>2092.0</v>
+      </c>
+      <c r="E174" s="2">
+        <v>1226.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2">
+        <v>2.14317576E8</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D175" s="2">
+        <v>2092.0</v>
+      </c>
+      <c r="E175" s="2">
+        <v>1226.0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2">
+        <v>2.14319155E8</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D176" s="2">
+        <v>2092.0</v>
+      </c>
+      <c r="E176" s="2">
+        <v>1226.0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2">
+        <v>2.14319842E8</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D177" s="2">
+        <v>2092.0</v>
+      </c>
+      <c r="E177" s="2">
+        <v>1226.0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2">
+        <v>2.1432089E8</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D178" s="2">
+        <v>2092.0</v>
+      </c>
+      <c r="E178" s="2">
+        <v>1226.0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2">
+        <v>2.14409118E8</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D179" s="2">
+        <v>1047.0</v>
+      </c>
+      <c r="E179" s="2">
+        <v>1746.0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2">
+        <v>2.14612719E8</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D180" s="2">
+        <v>2110.0</v>
+      </c>
+      <c r="E180" s="2">
+        <v>914.0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2">
+        <v>2.1461272E8</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D181" s="2">
+        <v>2110.0</v>
+      </c>
+      <c r="E181" s="2">
+        <v>914.0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2">
+        <v>2.14612967E8</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D182" s="2">
+        <v>2110.0</v>
+      </c>
+      <c r="E182" s="2">
+        <v>914.0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2">
+        <v>2.14612968E8</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D183" s="2">
+        <v>2110.0</v>
+      </c>
+      <c r="E183" s="2">
+        <v>914.0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2">
+        <v>2.14612969E8</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D184" s="2">
+        <v>2110.0</v>
+      </c>
+      <c r="E184" s="2">
+        <v>914.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2">
+        <v>2.14659421E8</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D185" s="2">
+        <v>2110.0</v>
+      </c>
+      <c r="E185" s="2">
+        <v>914.0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2">
+        <v>2.14717493E8</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D186" s="2">
+        <v>1354.0</v>
+      </c>
+      <c r="E186" s="2">
+        <v>1459.0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2">
+        <v>2.14721046E8</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D187" s="2">
+        <v>1354.0</v>
+      </c>
+      <c r="E187" s="2">
+        <v>375.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
